--- a/data/annotations/new_annotation_structure_out/agreement-statistics-gemini-2-0-flash-1-gemini-2-0-flash-2-gemini-2-0-flash-3.xlsx
+++ b/data/annotations/new_annotation_structure_out/agreement-statistics-gemini-2-0-flash-1-gemini-2-0-flash-2-gemini-2-0-flash-3.xlsx
@@ -483,13 +483,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.9575391583317607</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9186291403408003</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.9380841493362806</v>
       </c>
     </row>
     <row r="7">
@@ -502,10 +502,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.9236954303100827</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.9406172943209217</v>
       </c>
     </row>
     <row r="8">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0.9211622853254415</v>
       </c>
     </row>
     <row r="9">
@@ -528,22 +528,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0.9380841493362806</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0.9406172943209217</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0.9211622853254415</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0.9332879096608813</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fleiss' Kappa for iteration 3: 1.000</t>
+          <t>Fleiss' Kappa for iteration 3: 0.933</t>
         </is>
       </c>
     </row>
@@ -593,13 +593,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0.9799942840811661</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0.969991426121749</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0.9749928551014575</v>
       </c>
     </row>
     <row r="17">
@@ -612,10 +612,10 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0.9899193548387096</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0.9849568194599378</v>
       </c>
     </row>
     <row r="18">
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0.9799553904802294</v>
       </c>
     </row>
     <row r="19">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0.9749928551014575</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0.9849568194599378</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.9799553904802294</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0.979968355013875</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fleiss' Kappa for iteration 4: 1.000</t>
+          <t>Fleiss' Kappa for iteration 4: 0.980</t>
         </is>
       </c>
     </row>
@@ -703,13 +703,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0.9572332782117808</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0.9386676731458766</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0.9479504756788287</v>
       </c>
     </row>
     <row r="27">
@@ -722,10 +722,10 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0.9713849675696299</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0.9643091228907054</v>
       </c>
     </row>
     <row r="28">
@@ -738,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0.9550263203577533</v>
       </c>
     </row>
     <row r="29">
@@ -748,22 +748,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0.9479504756788287</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0.9643091228907054</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0.9550263203577533</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0.9557619729757625</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fleiss' Kappa for iteration 5: 1.000</t>
+          <t>Fleiss' Kappa for iteration 5: 0.956</t>
         </is>
       </c>
     </row>
@@ -813,13 +813,13 @@
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0.9363755603844874</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0.9017450086464393</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0.9190602845154634</v>
       </c>
     </row>
     <row r="37">
@@ -832,10 +832,10 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0.9271335302347272</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0.9317545453096073</v>
       </c>
     </row>
     <row r="38">
@@ -848,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0.9144392694405832</v>
       </c>
     </row>
     <row r="39">
@@ -858,22 +858,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0.9190602845154634</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0.9317545453096073</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0.9144392694405832</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0.9217513664218847</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fleiss' Kappa for iteration 6: 1.000</t>
+          <t>Fleiss' Kappa for iteration 6: 0.922</t>
         </is>
       </c>
     </row>
@@ -923,13 +923,13 @@
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0.9731223738319431</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0.9278466741826381</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0.9504845240072906</v>
       </c>
     </row>
     <row r="47">
@@ -942,10 +942,10 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0.9182746878547106</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>0.9456985308433268</v>
       </c>
     </row>
     <row r="48">
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0.9230606810186743</v>
       </c>
     </row>
     <row r="49">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0.9504845240072906</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0.9456985308433268</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0.9230606810186743</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0.9397479119564306</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Fleiss' Kappa for iteration 7: 1.000</t>
+          <t>Fleiss' Kappa for iteration 7: 0.940</t>
         </is>
       </c>
     </row>
@@ -1033,13 +1033,13 @@
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0.9778235106269737</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0.9911583451958869</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>0.9844909279114302</v>
       </c>
     </row>
     <row r="57">
@@ -1052,10 +1052,10 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0.9866057077544023</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0.982214609190688</v>
       </c>
     </row>
     <row r="58">
@@ -1068,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0.9888820264751446</v>
       </c>
     </row>
     <row r="59">
@@ -1078,22 +1078,22 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0.9844909279114302</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0.982214609190688</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0.9888820264751446</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0.9851958545257543</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Fleiss' Kappa for iteration 8: 1.000</t>
+          <t>Fleiss' Kappa for iteration 8: 0.985</t>
         </is>
       </c>
     </row>
@@ -1143,13 +1143,13 @@
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0.9749609390649413</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>0.9751535510544833</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>0.9750572450597124</v>
       </c>
     </row>
     <row r="67">
@@ -1162,10 +1162,10 @@
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0.9700694389017479</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>0.9725151889833445</v>
       </c>
     </row>
     <row r="68">
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>0.9726114949781156</v>
       </c>
     </row>
     <row r="69">
@@ -1188,22 +1188,22 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0.9750572450597124</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0.9725151889833445</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0.9726114949781156</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0.9733946430070576</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Fleiss' Kappa for iteration 9: 1.000</t>
+          <t>Fleiss' Kappa for iteration 9: 0.973</t>
         </is>
       </c>
     </row>
@@ -1253,13 +1253,13 @@
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0.9032058231376801</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>0.9659956474428727</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>0.9346007352902763</v>
       </c>
     </row>
     <row r="77">
@@ -1272,10 +1272,10 @@
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0.9373155630991186</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>0.9202606931183993</v>
       </c>
     </row>
     <row r="78">
@@ -1288,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>0.9516556052709957</v>
       </c>
     </row>
     <row r="79">
@@ -1298,22 +1298,22 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>0.9346007352902763</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0.9202606931183993</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>0.9516556052709957</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>0.9355056778932238</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Fleiss' Kappa for iteration 10: 1.000</t>
+          <t>Fleiss' Kappa for iteration 10: 0.935</t>
         </is>
       </c>
     </row>
@@ -1363,13 +1363,13 @@
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0.960398000099005</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0.9705232129697863</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>0.9654606065343956</v>
       </c>
     </row>
     <row r="87">
@@ -1382,10 +1382,10 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>0.9801990000495024</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>0.9702985000742537</v>
       </c>
     </row>
     <row r="88">
@@ -1398,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>0.9753611065096444</v>
       </c>
     </row>
     <row r="89">
@@ -1408,22 +1408,22 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0.9654606065343956</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0.9702985000742537</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0.9753611065096444</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>0.9703734043727645</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Fleiss' Kappa for iteration 11: 1.000</t>
+          <t>Fleiss' Kappa for iteration 11: 0.970</t>
         </is>
       </c>
     </row>
@@ -1473,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>0.9849765634389648</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0.9899453024453024</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0.9874609329421336</v>
       </c>
     </row>
     <row r="97">
@@ -1492,10 +1492,10 @@
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0.9849765634389648</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>0.9849765634389648</v>
       </c>
     </row>
     <row r="98">
@@ -1508,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>0.9874609329421336</v>
       </c>
     </row>
     <row r="99">
@@ -1518,22 +1518,22 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0.9874609329421336</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0.9849765634389648</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>0.9874609329421336</v>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>0.9866328097744107</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Fleiss' Kappa for iteration 12: 1.000</t>
+          <t>Fleiss' Kappa for iteration 12: 0.987</t>
         </is>
       </c>
     </row>
@@ -1583,13 +1583,13 @@
         <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>0.9807834584009916</v>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>0.9477285687131725</v>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>0.964256013557082</v>
       </c>
     </row>
     <row r="107">
@@ -1602,10 +1602,10 @@
         <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>0.9282021826536473</v>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>0.9544928205273194</v>
       </c>
     </row>
     <row r="108">
@@ -1618,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="E108" t="n">
-        <v>1</v>
+        <v>0.9379653756834099</v>
       </c>
     </row>
     <row r="109">
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0.964256013557082</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>0.9544928205273194</v>
       </c>
       <c r="D109" t="n">
-        <v>1</v>
+        <v>0.9379653756834099</v>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>0.9522380699226037</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Fleiss' Kappa for iteration 13: 1.000</t>
+          <t>Fleiss' Kappa for iteration 13: 0.952</t>
         </is>
       </c>
     </row>
@@ -1693,13 +1693,13 @@
         <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>0.9253333333333333</v>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>0.9253333333333333</v>
       </c>
       <c r="E116" t="n">
-        <v>1</v>
+        <v>0.9253333333333333</v>
       </c>
     </row>
     <row r="117">
@@ -1712,10 +1712,10 @@
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>1</v>
+        <v>0.8506666666666667</v>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>0.888</v>
       </c>
     </row>
     <row r="118">
@@ -1728,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>0.888</v>
       </c>
     </row>
     <row r="119">
@@ -1738,22 +1738,22 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>0.9253333333333333</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>0.888</v>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>0.888</v>
       </c>
       <c r="E119" t="n">
-        <v>1</v>
+        <v>0.9004444444444445</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Fleiss' Kappa for iteration 14: 1.000</t>
+          <t>Fleiss' Kappa for iteration 14: 0.900</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Average Fleiss' Kappa across all iterations: 1.000</t>
+          <t>Average Fleiss' Kappa across all iterations: 0.953</t>
         </is>
       </c>
     </row>
@@ -1803,7 +1803,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.959</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.952</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.947</t>
         </is>
       </c>
       <c r="C130" t="n">
